--- a/tables/CNV_copynumber_cnvkit_region.xlsx
+++ b/tables/CNV_copynumber_cnvkit_region.xlsx
@@ -522,10 +522,10 @@
   <dimension ref="A1:BJ201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1443,7 +1443,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
@@ -3923,7 +3923,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CLL/MZL/LPL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B18" s="14" t="inlineStr">
@@ -4496,7 +4496,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SLL</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B21" s="14" t="inlineStr">
@@ -6766,7 +6766,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MF, CD5+ small B cell lymphoproliferative</t>
+          <t>CLL</t>
         </is>
       </c>
       <c r="B33" s="18" t="inlineStr">
@@ -9614,7 +9614,7 @@
     <row r="48">
       <c r="A48" s="20" t="inlineStr">
         <is>
-          <t>MDS s/p allogeneic bone marrow transplant</t>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B48" s="18" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10005,9 +10005,9 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A50" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B50" s="18" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10397,7 +10397,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10593,7 +10593,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10789,7 +10789,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -10985,7 +10985,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -11181,7 +11181,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -11377,9 +11377,9 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A57" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B57" s="18" t="inlineStr">
@@ -11568,9 +11568,9 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A58" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B58" s="18" t="inlineStr">
@@ -11764,9 +11764,9 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with unilineage dysplasia</t>
+      <c r="A59" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B59" s="18" t="inlineStr">
@@ -11960,7 +11960,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12156,7 +12156,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12352,7 +12352,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -12553,9 +12553,9 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MDS-EB-1</t>
+      <c r="A63" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B63" s="18" t="inlineStr">
@@ -12749,9 +12749,9 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A64" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B64" s="18" t="inlineStr">
@@ -12945,9 +12945,9 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A65" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B65" s="18" t="inlineStr">
@@ -13141,7 +13141,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -13337,9 +13337,9 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A67" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B67" s="18" t="inlineStr">
@@ -13533,9 +13533,9 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MDS with multilineage dysplasia</t>
+      <c r="A68" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B68" s="18" t="inlineStr">
@@ -13729,9 +13729,9 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A69" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B69" s="18" t="inlineStr">
@@ -13925,7 +13925,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -14121,7 +14121,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -14313,9 +14313,9 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MDS therapy related</t>
+      <c r="A72" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B72" s="18" t="inlineStr">
@@ -14509,9 +14509,9 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A73" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B73" s="18" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -14901,7 +14901,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15097,7 +15097,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15293,7 +15293,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15489,7 +15489,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -15685,9 +15685,9 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MDS/MPN </t>
+      <c r="A79" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B79" s="18" t="inlineStr">
@@ -15881,7 +15881,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16082,7 +16082,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16278,7 +16278,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16474,7 +16474,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16670,7 +16670,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -16866,7 +16866,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17062,7 +17062,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17254,7 +17254,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17445,7 +17445,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17641,7 +17641,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -17837,7 +17837,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18033,9 +18033,9 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A91" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B91" s="18" t="inlineStr">
@@ -18224,9 +18224,9 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with ring sideroblasts</t>
+      <c r="A92" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B92" s="18" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18616,7 +18616,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -18812,9 +18812,9 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A95" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B95" s="18" t="inlineStr">
@@ -19008,9 +19008,9 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>MDS-EB</t>
+      <c r="A96" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B96" s="18" t="inlineStr">
@@ -19199,9 +19199,9 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>MDS with multilineage dysplasia and myelofibrosis</t>
+      <c r="A97" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B97" s="18" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -19591,9 +19591,9 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>MDS-EB</t>
+      <c r="A99" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B99" s="18" t="inlineStr">
@@ -19787,7 +19787,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -19983,9 +19983,9 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>MDS/MPN, CMML</t>
+      <c r="A101" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B101" s="18" t="inlineStr">
@@ -20179,9 +20179,9 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>MDS isolated del(5q)</t>
+      <c r="A102" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B102" s="18" t="inlineStr">
@@ -20375,7 +20375,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -20571,7 +20571,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -20767,9 +20767,9 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>MDS,  Refractory anemia with ring sideroblasts</t>
+      <c r="A105" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B105" s="18" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -21164,9 +21164,9 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>MDS-EB2</t>
+      <c r="A107" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B107" s="18" t="inlineStr">
@@ -21365,9 +21365,9 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>MDS-EB2</t>
+      <c r="A108" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B108" s="18" t="inlineStr">
@@ -21566,9 +21566,9 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>MDS, Refractory anemia with excess blasts</t>
+      <c r="A109" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B109" s="18" t="inlineStr">
@@ -21762,7 +21762,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -21958,9 +21958,9 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A111" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B111" s="18" t="inlineStr">
@@ -22154,9 +22154,9 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A112" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B112" s="18" t="inlineStr">
@@ -22350,7 +22350,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -22546,9 +22546,9 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>MDS/MPN</t>
+      <c r="A114" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B114" s="18" t="inlineStr">
@@ -22742,9 +22742,9 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
+      <c r="A115" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B115" s="18" t="inlineStr">
@@ -22933,7 +22933,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -23129,7 +23129,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -23325,7 +23325,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="20" t="inlineStr">
         <is>
           <t>MDS</t>
         </is>
@@ -23521,9 +23521,9 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>MDS + CML</t>
+      <c r="A119" s="20" t="inlineStr">
+        <is>
+          <t>MDS</t>
         </is>
       </c>
       <c r="B119" s="18" t="inlineStr">
